--- a/Soccer.xlsx
+++ b/Soccer.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Win?</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
     <t>Prior_Goals</t>
+  </si>
+  <si>
+    <t>Win_Or_Lose</t>
   </si>
 </sst>
 </file>
@@ -358,24 +358,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
